--- a/src/sheetSample.xlsx
+++ b/src/sheetSample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -566,6 +566,171 @@
   </si>
   <si>
     <t xml:space="preserve">paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joao@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joao@vtex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551199999-9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070-312-740-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Pacaembu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacaembu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.314.972/0001-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Magno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581.422.330-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.538-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Brigadeiro Faria Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andar 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itaim Bibi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07001-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maria@vtex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 92 999-999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belo Horizonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756/101/240-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Felicidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casa 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidade Nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 andar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07002-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose@vtex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">552799999-9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Branco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517.766.470-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Felicidade Correia dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5521-32322222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04538-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07003-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raissa@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raissa@vtex.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curitiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Felicidade Luiza de Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uberaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
   </si>
 </sst>
 </file>
@@ -647,13 +812,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -791,10 +968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="A2 J10"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2189,6 +2366,514 @@
       </c>
       <c r="AP11" s="2" t="n">
         <v>5516988888888</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1234000</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>502</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>552132322222</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AM12" s="5" t="n">
+        <v>341</v>
+      </c>
+      <c r="AN12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO12" s="5" t="n">
+        <v>7062</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>69097192</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>552132322222</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>4538132</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AM13" s="5" t="n">
+        <v>341</v>
+      </c>
+      <c r="AN13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO13" s="5" t="n">
+        <v>7062</v>
+      </c>
+      <c r="AP13" s="5" t="n">
+        <v>5592999999999</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>29031836</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="5" t="n">
+        <v>341</v>
+      </c>
+      <c r="AN14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO14" s="5" t="n">
+        <v>7062</v>
+      </c>
+      <c r="AP14" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5534999999999</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>32498496009</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>38051270</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>5511251499000</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>4538132</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AM15" s="5" t="n">
+        <v>341</v>
+      </c>
+      <c r="AN15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO15" s="5" t="n">
+        <v>7062</v>
+      </c>
+      <c r="AP15" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/src/sheetSample.xlsx
+++ b/src/sheetSample.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
